--- a/data/capacities.xlsx
+++ b/data/capacities.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="424">
   <si>
     <t>NOmcap</t>
   </si>
@@ -1314,6 +1314,18 @@
   <si>
     <t>OtherNonRes_GB</t>
   </si>
+  <si>
+    <t>WL_FI</t>
+  </si>
+  <si>
+    <t>WS_FI</t>
+  </si>
+  <si>
+    <t>PV_FI</t>
+  </si>
+  <si>
+    <t>OtherRes_FI</t>
+  </si>
 </sst>
 </file>
 
@@ -2049,10 +2061,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A566" sqref="A566"/>
-      <selection pane="topRight" activeCell="Z324" sqref="Z324"/>
+      <selection pane="topRight" activeCell="Z170" sqref="Z170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14505,7 +14517,7 @@
         <v>233</v>
       </c>
       <c r="Z165" s="8" t="s">
-        <v>299</v>
+        <v>420</v>
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.25">
@@ -14585,7 +14597,7 @@
         <v>233</v>
       </c>
       <c r="Z166" s="8" t="s">
-        <v>300</v>
+        <v>421</v>
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
@@ -14665,7 +14677,7 @@
         <v>233</v>
       </c>
       <c r="Z167" s="8" t="s">
-        <v>301</v>
+        <v>422</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.25">
@@ -14745,7 +14757,7 @@
         <v>233</v>
       </c>
       <c r="Z168" s="8" t="s">
-        <v>301</v>
+        <v>422</v>
       </c>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.25">
@@ -14825,7 +14837,7 @@
         <v>233</v>
       </c>
       <c r="Z169" s="8" t="s">
-        <v>302</v>
+        <v>423</v>
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
@@ -48072,7 +48084,10 @@
       <c r="S605" s="8"/>
       <c r="T605" s="8"/>
       <c r="U605" s="8"/>
-      <c r="V605" s="8"/>
+      <c r="V605" s="8">
+        <f>V603/0.00876</f>
+        <v>-530251.14155251137</v>
+      </c>
       <c r="W605" s="8"/>
       <c r="X605" s="8"/>
       <c r="Y605" s="8"/>

--- a/data/capacities.xlsx
+++ b/data/capacities.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="420">
   <si>
     <t>NOmcap</t>
   </si>
@@ -839,9 +839,6 @@
   </si>
   <si>
     <t>WS_DKKF</t>
-  </si>
-  <si>
-    <t>DKEIE</t>
   </si>
   <si>
     <t>KulUdland</t>
@@ -2053,9 +2050,9 @@
   <dimension ref="A1:AC625"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A588" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A566" sqref="A566"/>
-      <selection pane="topRight" activeCell="A604" sqref="A604"/>
+      <selection pane="topRight" activeCell="X614" sqref="X614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y3" s="8" t="s">
         <v>231</v>
@@ -2340,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y4" s="8" t="s">
         <v>231</v>
@@ -2420,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y5" s="8" t="s">
         <v>231</v>
@@ -2500,10 +2497,10 @@
         <v>0</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y6" s="8" t="s">
         <v>231</v>
@@ -2580,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y7" s="8" t="s">
         <v>231</v>
@@ -2663,13 +2660,13 @@
         <v>251</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y8" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -2740,10 +2737,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y9" s="8" t="s">
         <v>231</v>
@@ -2820,10 +2817,10 @@
         <v>5381</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y10" s="8" t="s">
         <v>231</v>
@@ -2903,13 +2900,13 @@
         <v>249</v>
       </c>
       <c r="X11" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y11" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -2983,13 +2980,13 @@
         <v>249</v>
       </c>
       <c r="X12" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y12" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -3063,13 +3060,13 @@
         <v>250</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y13" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z13" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -3143,13 +3140,13 @@
         <v>250</v>
       </c>
       <c r="X14" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y14" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z14" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -3220,10 +3217,10 @@
         <v>0</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X15" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y15" s="8" t="s">
         <v>231</v>
@@ -3300,10 +3297,10 @@
         <v>20</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X16" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y16" s="8" t="s">
         <v>231</v>
@@ -3383,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="X17" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y17" s="8" t="s">
         <v>231</v>
@@ -3463,7 +3460,7 @@
         <v>14</v>
       </c>
       <c r="X18" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y18" s="8" t="s">
         <v>231</v>
@@ -3543,7 +3540,7 @@
         <v>15</v>
       </c>
       <c r="X19" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y19" s="8" t="s">
         <v>231</v>
@@ -3623,7 +3620,7 @@
         <v>16</v>
       </c>
       <c r="X20" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y20" s="8" t="s">
         <v>231</v>
@@ -3703,7 +3700,7 @@
         <v>253</v>
       </c>
       <c r="X21" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y21" s="8" t="s">
         <v>231</v>
@@ -3920,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="X25" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y25" s="8" t="s">
         <v>231</v>
@@ -3997,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X26" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y26" s="8" t="s">
         <v>231</v>
@@ -4077,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X27" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y27" s="8" t="s">
         <v>231</v>
@@ -4157,10 +4154,10 @@
         <v>0</v>
       </c>
       <c r="W28" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y28" s="8" t="s">
         <v>231</v>
@@ -4237,10 +4234,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X29" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y29" s="8" t="s">
         <v>231</v>
@@ -4320,13 +4317,13 @@
         <v>251</v>
       </c>
       <c r="X30" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y30" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z30" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -4397,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X31" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y31" s="8" t="s">
         <v>231</v>
@@ -4477,10 +4474,10 @@
         <v>5900</v>
       </c>
       <c r="W32" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X32" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y32" s="8" t="s">
         <v>231</v>
@@ -4560,13 +4557,13 @@
         <v>249</v>
       </c>
       <c r="X33" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y33" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z33" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="Y33" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z33" s="8" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
@@ -4640,13 +4637,13 @@
         <v>249</v>
       </c>
       <c r="X34" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y34" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z34" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="Y34" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z34" s="8" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
@@ -4720,13 +4717,13 @@
         <v>250</v>
       </c>
       <c r="X35" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y35" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z35" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
@@ -4800,13 +4797,13 @@
         <v>250</v>
       </c>
       <c r="X36" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y36" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z36" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
@@ -4877,10 +4874,10 @@
         <v>40</v>
       </c>
       <c r="W37" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="X37" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y37" s="8" t="s">
         <v>231</v>
@@ -4957,10 +4954,10 @@
         <v>195</v>
       </c>
       <c r="W38" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X38" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y38" s="8" t="s">
         <v>231</v>
@@ -5040,7 +5037,7 @@
         <v>13</v>
       </c>
       <c r="X39" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y39" s="8" t="s">
         <v>231</v>
@@ -5120,7 +5117,7 @@
         <v>14</v>
       </c>
       <c r="X40" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y40" s="8" t="s">
         <v>231</v>
@@ -5200,7 +5197,7 @@
         <v>15</v>
       </c>
       <c r="X41" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y41" s="8" t="s">
         <v>231</v>
@@ -5280,7 +5277,7 @@
         <v>16</v>
       </c>
       <c r="X42" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y42" s="8" t="s">
         <v>231</v>
@@ -5360,7 +5357,7 @@
         <v>253</v>
       </c>
       <c r="X43" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y43" s="8" t="s">
         <v>231</v>
@@ -5577,7 +5574,7 @@
         <v>1</v>
       </c>
       <c r="X47" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y47" s="8" t="s">
         <v>231</v>
@@ -5654,10 +5651,10 @@
         <v>0</v>
       </c>
       <c r="W48" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X48" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y48" s="8" t="s">
         <v>231</v>
@@ -5734,10 +5731,10 @@
         <v>0</v>
       </c>
       <c r="W49" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X49" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y49" s="8" t="s">
         <v>231</v>
@@ -5814,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="W50" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X50" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y50" s="8" t="s">
         <v>231</v>
@@ -5894,10 +5891,10 @@
         <v>0</v>
       </c>
       <c r="W51" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X51" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y51" s="8" t="s">
         <v>231</v>
@@ -5977,13 +5974,13 @@
         <v>251</v>
       </c>
       <c r="X52" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y52" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z52" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
@@ -6054,10 +6051,10 @@
         <v>0</v>
       </c>
       <c r="W53" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X53" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y53" s="8" t="s">
         <v>231</v>
@@ -6134,10 +6131,10 @@
         <v>24780</v>
       </c>
       <c r="W54" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X54" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y54" s="8" t="s">
         <v>231</v>
@@ -6217,13 +6214,13 @@
         <v>249</v>
       </c>
       <c r="X55" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y55" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z55" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="Y55" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z55" s="8" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
@@ -6297,13 +6294,13 @@
         <v>249</v>
       </c>
       <c r="X56" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y56" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z56" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
@@ -6377,13 +6374,13 @@
         <v>250</v>
       </c>
       <c r="X57" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y57" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z57" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
@@ -6457,13 +6454,13 @@
         <v>250</v>
       </c>
       <c r="X58" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y58" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z58" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
@@ -6534,10 +6531,10 @@
         <v>36</v>
       </c>
       <c r="W59" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X59" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y59" s="8" t="s">
         <v>231</v>
@@ -6614,10 +6611,10 @@
         <v>50</v>
       </c>
       <c r="W60" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X60" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y60" s="8" t="s">
         <v>231</v>
@@ -6697,7 +6694,7 @@
         <v>13</v>
       </c>
       <c r="X61" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y61" s="8" t="s">
         <v>231</v>
@@ -6777,7 +6774,7 @@
         <v>14</v>
       </c>
       <c r="X62" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y62" s="8" t="s">
         <v>231</v>
@@ -6857,7 +6854,7 @@
         <v>15</v>
       </c>
       <c r="X63" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y63" s="8" t="s">
         <v>231</v>
@@ -6937,7 +6934,7 @@
         <v>16</v>
       </c>
       <c r="X64" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y64" s="8" t="s">
         <v>231</v>
@@ -7017,7 +7014,7 @@
         <v>253</v>
       </c>
       <c r="X65" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y65" s="8" t="s">
         <v>231</v>
@@ -7231,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="W69" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X69" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y69" s="8" t="s">
         <v>231</v>
@@ -7311,10 +7308,10 @@
         <v>0</v>
       </c>
       <c r="W70" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X70" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y70" s="8" t="s">
         <v>231</v>
@@ -7391,10 +7388,10 @@
         <v>0</v>
       </c>
       <c r="W71" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X71" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y71" s="8" t="s">
         <v>231</v>
@@ -7471,10 +7468,10 @@
         <v>0</v>
       </c>
       <c r="W72" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X72" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y72" s="8" t="s">
         <v>231</v>
@@ -7551,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="W73" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X73" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y73" s="8" t="s">
         <v>231</v>
@@ -7634,13 +7631,13 @@
         <v>251</v>
       </c>
       <c r="X74" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y74" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z74" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
@@ -7711,10 +7708,10 @@
         <v>5315</v>
       </c>
       <c r="W75" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X75" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y75" s="8" t="s">
         <v>231</v>
@@ -7791,10 +7788,10 @@
         <v>0</v>
       </c>
       <c r="W76" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X76" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y76" s="8" t="s">
         <v>231</v>
@@ -7874,13 +7871,13 @@
         <v>249</v>
       </c>
       <c r="X77" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y77" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z77" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="Y77" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z77" s="8" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
@@ -7954,13 +7951,13 @@
         <v>249</v>
       </c>
       <c r="X78" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y78" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z78" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
@@ -8034,13 +8031,13 @@
         <v>250</v>
       </c>
       <c r="X79" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y79" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z79" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
@@ -8114,13 +8111,13 @@
         <v>250</v>
       </c>
       <c r="X80" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y80" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z80" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
@@ -8191,16 +8188,16 @@
         <v>276</v>
       </c>
       <c r="W81" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X81" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y81" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z81" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
@@ -8271,10 +8268,10 @@
         <v>0</v>
       </c>
       <c r="W82" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X82" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y82" s="8" t="s">
         <v>231</v>
@@ -8354,7 +8351,7 @@
         <v>13</v>
       </c>
       <c r="X83" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y83" s="8" t="s">
         <v>231</v>
@@ -8434,7 +8431,7 @@
         <v>14</v>
       </c>
       <c r="X84" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y84" s="8" t="s">
         <v>231</v>
@@ -8514,7 +8511,7 @@
         <v>15</v>
       </c>
       <c r="X85" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y85" s="8" t="s">
         <v>231</v>
@@ -8594,7 +8591,7 @@
         <v>16</v>
       </c>
       <c r="X86" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y86" s="8" t="s">
         <v>231</v>
@@ -8674,7 +8671,7 @@
         <v>253</v>
       </c>
       <c r="X87" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y87" s="8" t="s">
         <v>231</v>
@@ -8888,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="W91" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X91" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y91" s="8" t="s">
         <v>231</v>
@@ -8968,10 +8965,10 @@
         <v>0</v>
       </c>
       <c r="W92" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X92" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y92" s="8" t="s">
         <v>231</v>
@@ -9048,10 +9045,10 @@
         <v>0</v>
       </c>
       <c r="W93" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X93" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y93" s="8" t="s">
         <v>231</v>
@@ -9128,10 +9125,10 @@
         <v>53</v>
       </c>
       <c r="W94" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X94" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y94" s="8" t="s">
         <v>231</v>
@@ -9208,10 +9205,10 @@
         <v>0</v>
       </c>
       <c r="W95" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X95" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y95" s="8" t="s">
         <v>231</v>
@@ -9291,13 +9288,13 @@
         <v>251</v>
       </c>
       <c r="X96" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y96" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z96" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
@@ -9368,10 +9365,10 @@
         <v>8055</v>
       </c>
       <c r="W97" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X97" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y97" s="8" t="s">
         <v>231</v>
@@ -9448,10 +9445,10 @@
         <v>0</v>
       </c>
       <c r="W98" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X98" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y98" s="8" t="s">
         <v>231</v>
@@ -9531,13 +9528,13 @@
         <v>249</v>
       </c>
       <c r="X99" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y99" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z99" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="Y99" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z99" s="8" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
@@ -9611,13 +9608,13 @@
         <v>249</v>
       </c>
       <c r="X100" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y100" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z100" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
@@ -9691,13 +9688,13 @@
         <v>250</v>
       </c>
       <c r="X101" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y101" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z101" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
@@ -9771,13 +9768,13 @@
         <v>250</v>
       </c>
       <c r="X102" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y102" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z102" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
@@ -9848,16 +9845,16 @@
         <v>575</v>
       </c>
       <c r="W103" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X103" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y103" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z103" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
@@ -9928,10 +9925,10 @@
         <v>0</v>
       </c>
       <c r="W104" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X104" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y104" s="8" t="s">
         <v>231</v>
@@ -10011,7 +10008,7 @@
         <v>13</v>
       </c>
       <c r="X105" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y105" s="8" t="s">
         <v>231</v>
@@ -10091,7 +10088,7 @@
         <v>14</v>
       </c>
       <c r="X106" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y106" s="8" t="s">
         <v>231</v>
@@ -10171,7 +10168,7 @@
         <v>15</v>
       </c>
       <c r="X107" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y107" s="8" t="s">
         <v>231</v>
@@ -10251,7 +10248,7 @@
         <v>16</v>
       </c>
       <c r="X108" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y108" s="8" t="s">
         <v>231</v>
@@ -10331,7 +10328,7 @@
         <v>253</v>
       </c>
       <c r="X109" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y109" s="8" t="s">
         <v>231</v>
@@ -10545,10 +10542,10 @@
         <v>0</v>
       </c>
       <c r="W113" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X113" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y113" s="8" t="s">
         <v>231</v>
@@ -10625,10 +10622,10 @@
         <v>0</v>
       </c>
       <c r="W114" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X114" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y114" s="8" t="s">
         <v>231</v>
@@ -10705,10 +10702,10 @@
         <v>0</v>
       </c>
       <c r="W115" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X115" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y115" s="8" t="s">
         <v>231</v>
@@ -10785,10 +10782,10 @@
         <v>324</v>
       </c>
       <c r="W116" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X116" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y116" s="8" t="s">
         <v>231</v>
@@ -10865,10 +10862,10 @@
         <v>0</v>
       </c>
       <c r="W117" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X117" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y117" s="8" t="s">
         <v>231</v>
@@ -10948,13 +10945,13 @@
         <v>251</v>
       </c>
       <c r="X118" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y118" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z118" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
@@ -11025,10 +11022,10 @@
         <v>2911</v>
       </c>
       <c r="W119" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X119" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y119" s="8" t="s">
         <v>231</v>
@@ -11105,10 +11102,10 @@
         <v>0</v>
       </c>
       <c r="W120" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X120" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y120" s="8" t="s">
         <v>231</v>
@@ -11188,13 +11185,13 @@
         <v>249</v>
       </c>
       <c r="X121" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y121" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z121" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="Y121" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z121" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
@@ -11268,13 +11265,13 @@
         <v>249</v>
       </c>
       <c r="X122" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y122" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z122" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
@@ -11348,13 +11345,13 @@
         <v>250</v>
       </c>
       <c r="X123" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y123" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z123" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
@@ -11428,13 +11425,13 @@
         <v>250</v>
       </c>
       <c r="X124" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y124" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z124" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
@@ -11505,16 +11502,16 @@
         <v>2633</v>
       </c>
       <c r="W125" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X125" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y125" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z125" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
@@ -11585,10 +11582,10 @@
         <v>0</v>
       </c>
       <c r="W126" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X126" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y126" s="8" t="s">
         <v>231</v>
@@ -11668,7 +11665,7 @@
         <v>13</v>
       </c>
       <c r="X127" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y127" s="8" t="s">
         <v>231</v>
@@ -11748,7 +11745,7 @@
         <v>14</v>
       </c>
       <c r="X128" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y128" s="8" t="s">
         <v>231</v>
@@ -11828,7 +11825,7 @@
         <v>15</v>
       </c>
       <c r="X129" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y129" s="8" t="s">
         <v>231</v>
@@ -11908,7 +11905,7 @@
         <v>16</v>
       </c>
       <c r="X130" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y130" s="8" t="s">
         <v>231</v>
@@ -11988,7 +11985,7 @@
         <v>253</v>
       </c>
       <c r="X131" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y131" s="8" t="s">
         <v>231</v>
@@ -12202,10 +12199,10 @@
         <v>0</v>
       </c>
       <c r="W135" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X135" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y135" s="8" t="s">
         <v>231</v>
@@ -12282,10 +12279,10 @@
         <v>0</v>
       </c>
       <c r="W136" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X136" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y136" s="8" t="s">
         <v>231</v>
@@ -12362,10 +12359,10 @@
         <v>0</v>
       </c>
       <c r="W137" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X137" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y137" s="8" t="s">
         <v>231</v>
@@ -12442,10 +12439,10 @@
         <v>0</v>
       </c>
       <c r="W138" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X138" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y138" s="8" t="s">
         <v>231</v>
@@ -12522,10 +12519,10 @@
         <v>0</v>
       </c>
       <c r="W139" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X139" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y139" s="8" t="s">
         <v>231</v>
@@ -12605,13 +12602,13 @@
         <v>251</v>
       </c>
       <c r="X140" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y140" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z140" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
@@ -12682,10 +12679,10 @@
         <v>349</v>
       </c>
       <c r="W141" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X141" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y141" s="8" t="s">
         <v>231</v>
@@ -12762,10 +12759,10 @@
         <v>0</v>
       </c>
       <c r="W142" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X142" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y142" s="8" t="s">
         <v>231</v>
@@ -12845,13 +12842,13 @@
         <v>249</v>
       </c>
       <c r="X143" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y143" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z143" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="Y143" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z143" s="8" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
@@ -12925,13 +12922,13 @@
         <v>249</v>
       </c>
       <c r="X144" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y144" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z144" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
@@ -13005,13 +13002,13 @@
         <v>250</v>
       </c>
       <c r="X145" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y145" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z145" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
@@ -13085,13 +13082,13 @@
         <v>250</v>
       </c>
       <c r="X146" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y146" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z146" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
@@ -13162,16 +13159,16 @@
         <v>701</v>
       </c>
       <c r="W147" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X147" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y147" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z147" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
@@ -13242,10 +13239,10 @@
         <v>0</v>
       </c>
       <c r="W148" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X148" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y148" s="8" t="s">
         <v>231</v>
@@ -13325,7 +13322,7 @@
         <v>13</v>
       </c>
       <c r="X149" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y149" s="8" t="s">
         <v>231</v>
@@ -13405,7 +13402,7 @@
         <v>14</v>
       </c>
       <c r="X150" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y150" s="8" t="s">
         <v>231</v>
@@ -13485,7 +13482,7 @@
         <v>15</v>
       </c>
       <c r="X151" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y151" s="8" t="s">
         <v>231</v>
@@ -13565,7 +13562,7 @@
         <v>16</v>
       </c>
       <c r="X152" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y152" s="8" t="s">
         <v>231</v>
@@ -13645,7 +13642,7 @@
         <v>253</v>
       </c>
       <c r="X153" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y153" s="8" t="s">
         <v>231</v>
@@ -13859,10 +13856,10 @@
         <v>3690</v>
       </c>
       <c r="W157" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X157" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y157" s="8" t="s">
         <v>231</v>
@@ -13939,10 +13936,10 @@
         <v>0</v>
       </c>
       <c r="W158" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X158" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y158" s="8" t="s">
         <v>231</v>
@@ -14019,10 +14016,10 @@
         <v>737</v>
       </c>
       <c r="W159" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X159" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y159" s="8" t="s">
         <v>231</v>
@@ -14099,10 +14096,10 @@
         <v>605</v>
       </c>
       <c r="W160" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X160" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y160" s="8" t="s">
         <v>231</v>
@@ -14179,10 +14176,10 @@
         <v>0</v>
       </c>
       <c r="W161" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X161" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y161" s="8" t="s">
         <v>231</v>
@@ -14262,13 +14259,13 @@
         <v>251</v>
       </c>
       <c r="X162" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y162" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z162" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.25">
@@ -14339,10 +14336,10 @@
         <v>3200</v>
       </c>
       <c r="W163" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X163" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y163" s="8" t="s">
         <v>231</v>
@@ -14419,10 +14416,10 @@
         <v>0</v>
       </c>
       <c r="W164" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="X164" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y164" s="8" t="s">
         <v>231</v>
@@ -14502,13 +14499,13 @@
         <v>249</v>
       </c>
       <c r="X165" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y165" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z165" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.25">
@@ -14582,13 +14579,13 @@
         <v>249</v>
       </c>
       <c r="X166" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y166" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z166" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
@@ -14662,13 +14659,13 @@
         <v>250</v>
       </c>
       <c r="X167" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y167" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z167" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.25">
@@ -14742,13 +14739,13 @@
         <v>250</v>
       </c>
       <c r="X168" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y168" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z168" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.25">
@@ -14819,16 +14816,16 @@
         <v>3043</v>
       </c>
       <c r="W169" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X169" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y169" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z169" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
@@ -14899,16 +14896,16 @@
         <v>1805</v>
       </c>
       <c r="W170" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X170" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y170" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z170" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="Y170" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z170" s="8" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.25">
@@ -14982,7 +14979,7 @@
         <v>13</v>
       </c>
       <c r="X171" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y171" s="8" t="s">
         <v>231</v>
@@ -15062,7 +15059,7 @@
         <v>14</v>
       </c>
       <c r="X172" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y172" s="8" t="s">
         <v>231</v>
@@ -15142,7 +15139,7 @@
         <v>15</v>
       </c>
       <c r="X173" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y173" s="8" t="s">
         <v>231</v>
@@ -15222,7 +15219,7 @@
         <v>16</v>
       </c>
       <c r="X174" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y174" s="8" t="s">
         <v>231</v>
@@ -15302,7 +15299,7 @@
         <v>253</v>
       </c>
       <c r="X175" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y175" s="8" t="s">
         <v>231</v>
@@ -15516,10 +15513,10 @@
         <v>0</v>
       </c>
       <c r="W179" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="X179" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y179" s="8" t="s">
         <v>231</v>
@@ -15596,10 +15593,10 @@
         <v>0</v>
       </c>
       <c r="W180" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X180" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y180" s="8" t="s">
         <v>231</v>
@@ -15676,10 +15673,10 @@
         <v>0</v>
       </c>
       <c r="W181" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X181" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y181" s="8" t="s">
         <v>231</v>
@@ -15756,10 +15753,10 @@
         <v>21176</v>
       </c>
       <c r="W182" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X182" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y182" s="8" t="s">
         <v>231</v>
@@ -15836,10 +15833,10 @@
         <v>223</v>
       </c>
       <c r="W183" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X183" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y183" s="8" t="s">
         <v>231</v>
@@ -15919,13 +15916,13 @@
         <v>251</v>
       </c>
       <c r="X184" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y184" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z184" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.25">
@@ -15996,16 +15993,16 @@
         <v>1297</v>
       </c>
       <c r="W185" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X185" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y185" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z185" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.25">
@@ -16076,10 +16073,10 @@
         <v>11347</v>
       </c>
       <c r="W186" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X186" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y186" s="8" t="s">
         <v>231</v>
@@ -16159,13 +16156,13 @@
         <v>249</v>
       </c>
       <c r="X187" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y187" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z187" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.25">
@@ -16239,13 +16236,13 @@
         <v>249</v>
       </c>
       <c r="X188" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y188" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z188" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.25">
@@ -16319,13 +16316,13 @@
         <v>250</v>
       </c>
       <c r="X189" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y189" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z189" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.25">
@@ -16399,13 +16396,13 @@
         <v>250</v>
       </c>
       <c r="X190" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y190" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z190" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.25">
@@ -16476,10 +16473,10 @@
         <v>5288</v>
       </c>
       <c r="W191" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="X191" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y191" s="8" t="s">
         <v>231</v>
@@ -16556,16 +16553,16 @@
         <v>20599</v>
       </c>
       <c r="W192" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X192" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y192" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z192" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.25">
@@ -16639,7 +16636,7 @@
         <v>13</v>
       </c>
       <c r="X193" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y193" s="8" t="s">
         <v>231</v>
@@ -16719,7 +16716,7 @@
         <v>14</v>
       </c>
       <c r="X194" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y194" s="8" t="s">
         <v>231</v>
@@ -16799,7 +16796,7 @@
         <v>15</v>
       </c>
       <c r="X195" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y195" s="8" t="s">
         <v>231</v>
@@ -16879,7 +16876,7 @@
         <v>16</v>
       </c>
       <c r="X196" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y196" s="8" t="s">
         <v>231</v>
@@ -16959,7 +16956,7 @@
         <v>253</v>
       </c>
       <c r="X197" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y197" s="8" t="s">
         <v>231</v>
@@ -17176,7 +17173,7 @@
         <v>1</v>
       </c>
       <c r="X201" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y201" s="8" t="s">
         <v>231</v>
@@ -17253,10 +17250,10 @@
         <v>0</v>
       </c>
       <c r="W202" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X202" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y202" s="8" t="s">
         <v>231</v>
@@ -17333,10 +17330,10 @@
         <v>0</v>
       </c>
       <c r="W203" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X203" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y203" s="8" t="s">
         <v>231</v>
@@ -17413,10 +17410,10 @@
         <v>1623</v>
       </c>
       <c r="W204" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X204" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y204" s="8" t="s">
         <v>231</v>
@@ -17493,10 +17490,10 @@
         <v>0</v>
       </c>
       <c r="W205" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X205" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y205" s="8" t="s">
         <v>231</v>
@@ -17576,13 +17573,13 @@
         <v>251</v>
       </c>
       <c r="X206" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y206" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z206" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.25">
@@ -17653,10 +17650,10 @@
         <v>2433</v>
       </c>
       <c r="W207" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X207" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y207" s="8" t="s">
         <v>231</v>
@@ -17733,10 +17730,10 @@
         <v>6637</v>
       </c>
       <c r="W208" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X208" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y208" s="8" t="s">
         <v>231</v>
@@ -17816,13 +17813,13 @@
         <v>249</v>
       </c>
       <c r="X209" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y209" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z209" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.25">
@@ -17896,13 +17893,13 @@
         <v>249</v>
       </c>
       <c r="X210" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y210" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z210" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.25">
@@ -17976,13 +17973,13 @@
         <v>250</v>
       </c>
       <c r="X211" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y211" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z211" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.25">
@@ -18056,13 +18053,13 @@
         <v>250</v>
       </c>
       <c r="X212" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y212" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z212" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.25">
@@ -18133,10 +18130,10 @@
         <v>599</v>
       </c>
       <c r="W213" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="X213" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y213" s="8" t="s">
         <v>231</v>
@@ -18213,10 +18210,10 @@
         <v>953</v>
       </c>
       <c r="W214" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="X214" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y214" s="8" t="s">
         <v>231</v>
@@ -18296,7 +18293,7 @@
         <v>13</v>
       </c>
       <c r="X215" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y215" s="8" t="s">
         <v>231</v>
@@ -18376,7 +18373,7 @@
         <v>14</v>
       </c>
       <c r="X216" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y216" s="8" t="s">
         <v>231</v>
@@ -18456,7 +18453,7 @@
         <v>15</v>
       </c>
       <c r="X217" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y217" s="8" t="s">
         <v>231</v>
@@ -18536,7 +18533,7 @@
         <v>16</v>
       </c>
       <c r="X218" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y218" s="8" t="s">
         <v>231</v>
@@ -18616,7 +18613,7 @@
         <v>253</v>
       </c>
       <c r="X219" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y219" s="8" t="s">
         <v>231</v>
@@ -18830,10 +18827,10 @@
         <v>0</v>
       </c>
       <c r="W223" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X223" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y223" s="8" t="s">
         <v>231</v>
@@ -18910,10 +18907,10 @@
         <v>0</v>
       </c>
       <c r="W224" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X224" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y224" s="8" t="s">
         <v>231</v>
@@ -18990,10 +18987,10 @@
         <v>3381</v>
       </c>
       <c r="W225" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X225" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y225" s="8" t="s">
         <v>231</v>
@@ -19070,10 +19067,10 @@
         <v>9293</v>
       </c>
       <c r="W226" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X226" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y226" s="8" t="s">
         <v>231</v>
@@ -19150,10 +19147,10 @@
         <v>0</v>
       </c>
       <c r="W227" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X227" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y227" s="8" t="s">
         <v>231</v>
@@ -19233,13 +19230,13 @@
         <v>251</v>
       </c>
       <c r="X228" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y228" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z228" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="Y228" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z228" s="8" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.25">
@@ -19310,10 +19307,10 @@
         <v>0</v>
       </c>
       <c r="W229" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X229" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y229" s="8" t="s">
         <v>231</v>
@@ -19390,10 +19387,10 @@
         <v>0</v>
       </c>
       <c r="W230" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X230" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y230" s="8" t="s">
         <v>231</v>
@@ -19473,13 +19470,13 @@
         <v>249</v>
       </c>
       <c r="X231" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y231" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z231" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.25">
@@ -19553,13 +19550,13 @@
         <v>249</v>
       </c>
       <c r="X232" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y232" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z232" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.25">
@@ -19633,13 +19630,13 @@
         <v>250</v>
       </c>
       <c r="X233" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y233" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z233" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.25">
@@ -19713,13 +19710,13 @@
         <v>250</v>
       </c>
       <c r="X234" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y234" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z234" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.25">
@@ -19790,10 +19787,10 @@
         <v>540</v>
       </c>
       <c r="W235" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="X235" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y235" s="8" t="s">
         <v>231</v>
@@ -19870,10 +19867,10 @@
         <v>3770</v>
       </c>
       <c r="W236" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="X236" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y236" s="8" t="s">
         <v>231</v>
@@ -19953,7 +19950,7 @@
         <v>13</v>
       </c>
       <c r="X237" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y237" s="8" t="s">
         <v>231</v>
@@ -20033,7 +20030,7 @@
         <v>14</v>
       </c>
       <c r="X238" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y238" s="8" t="s">
         <v>231</v>
@@ -20113,7 +20110,7 @@
         <v>15</v>
       </c>
       <c r="X239" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y239" s="8" t="s">
         <v>231</v>
@@ -20193,7 +20190,7 @@
         <v>16</v>
       </c>
       <c r="X240" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y240" s="8" t="s">
         <v>231</v>
@@ -20273,7 +20270,7 @@
         <v>253</v>
       </c>
       <c r="X241" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y241" s="8" t="s">
         <v>231</v>
@@ -20487,10 +20484,10 @@
         <v>14290</v>
       </c>
       <c r="W245" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="X245" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y245" s="8" t="s">
         <v>231</v>
@@ -20567,10 +20564,10 @@
         <v>0</v>
       </c>
       <c r="W246" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X246" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y246" s="8" t="s">
         <v>231</v>
@@ -20647,10 +20644,10 @@
         <v>3984</v>
       </c>
       <c r="W247" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X247" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y247" s="8" t="s">
         <v>231</v>
@@ -20727,10 +20724,10 @@
         <v>37171</v>
       </c>
       <c r="W248" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X248" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y248" s="8" t="s">
         <v>231</v>
@@ -20807,10 +20804,10 @@
         <v>371</v>
       </c>
       <c r="W249" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X249" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y249" s="8" t="s">
         <v>231</v>
@@ -20890,13 +20887,13 @@
         <v>251</v>
       </c>
       <c r="X250" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y250" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z250" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="Y250" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z250" s="8" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.25">
@@ -20967,10 +20964,10 @@
         <v>0</v>
       </c>
       <c r="W251" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X251" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y251" s="8" t="s">
         <v>231</v>
@@ -21047,10 +21044,10 @@
         <v>4004</v>
       </c>
       <c r="W252" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X252" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y252" s="8" t="s">
         <v>231</v>
@@ -21130,13 +21127,13 @@
         <v>249</v>
       </c>
       <c r="X253" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y253" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z253" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.25">
@@ -21210,13 +21207,13 @@
         <v>249</v>
       </c>
       <c r="X254" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y254" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z254" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.25">
@@ -21290,13 +21287,13 @@
         <v>250</v>
       </c>
       <c r="X255" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y255" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z255" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.25">
@@ -21370,13 +21367,13 @@
         <v>250</v>
       </c>
       <c r="X256" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y256" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z256" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.25">
@@ -21447,10 +21444,10 @@
         <v>4700</v>
       </c>
       <c r="W257" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="X257" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y257" s="8" t="s">
         <v>231</v>
@@ -21527,10 +21524,10 @@
         <v>7432</v>
       </c>
       <c r="W258" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="X258" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y258" s="8" t="s">
         <v>231</v>
@@ -21610,7 +21607,7 @@
         <v>13</v>
       </c>
       <c r="X259" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y259" s="8" t="s">
         <v>231</v>
@@ -21690,7 +21687,7 @@
         <v>14</v>
       </c>
       <c r="X260" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y260" s="8" t="s">
         <v>231</v>
@@ -21770,7 +21767,7 @@
         <v>15</v>
       </c>
       <c r="X261" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y261" s="8" t="s">
         <v>231</v>
@@ -21850,7 +21847,7 @@
         <v>16</v>
       </c>
       <c r="X262" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y262" s="8" t="s">
         <v>231</v>
@@ -21930,7 +21927,7 @@
         <v>253</v>
       </c>
       <c r="X263" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y263" s="8" t="s">
         <v>231</v>
@@ -22144,10 +22141,10 @@
         <v>43129</v>
       </c>
       <c r="W267" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="X267" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y267" s="8" t="s">
         <v>231</v>
@@ -22224,10 +22221,10 @@
         <v>0</v>
       </c>
       <c r="W268" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X268" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y268" s="8" t="s">
         <v>231</v>
@@ -22304,10 +22301,10 @@
         <v>0</v>
       </c>
       <c r="W269" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X269" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y269" s="8" t="s">
         <v>231</v>
@@ -22384,10 +22381,10 @@
         <v>6944</v>
       </c>
       <c r="W270" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X270" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y270" s="8" t="s">
         <v>231</v>
@@ -22464,10 +22461,10 @@
         <v>0</v>
       </c>
       <c r="W271" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X271" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y271" s="8" t="s">
         <v>231</v>
@@ -22547,13 +22544,13 @@
         <v>251</v>
       </c>
       <c r="X272" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y272" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z272" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="Y272" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z272" s="8" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.25">
@@ -22624,16 +22621,16 @@
         <v>8200</v>
       </c>
       <c r="W273" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X273" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y273" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z273" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.25">
@@ -22704,10 +22701,10 @@
         <v>3500</v>
       </c>
       <c r="W274" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X274" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y274" s="8" t="s">
         <v>231</v>
@@ -22787,13 +22784,13 @@
         <v>249</v>
       </c>
       <c r="X275" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y275" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z275" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.25">
@@ -22867,13 +22864,13 @@
         <v>249</v>
       </c>
       <c r="X276" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y276" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z276" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.25">
@@ -22947,13 +22944,13 @@
         <v>250</v>
       </c>
       <c r="X277" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y277" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z277" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.25">
@@ -23027,13 +23024,13 @@
         <v>250</v>
       </c>
       <c r="X278" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y278" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z278" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.25">
@@ -23104,10 +23101,10 @@
         <v>2549</v>
       </c>
       <c r="W279" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="X279" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y279" s="8" t="s">
         <v>231</v>
@@ -23184,16 +23181,16 @@
         <v>6533</v>
       </c>
       <c r="W280" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X280" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y280" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z280" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.25">
@@ -23267,7 +23264,7 @@
         <v>13</v>
       </c>
       <c r="X281" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y281" s="8" t="s">
         <v>231</v>
@@ -23347,7 +23344,7 @@
         <v>14</v>
       </c>
       <c r="X282" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y282" s="8" t="s">
         <v>231</v>
@@ -23427,7 +23424,7 @@
         <v>15</v>
       </c>
       <c r="X283" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y283" s="8" t="s">
         <v>231</v>
@@ -23507,7 +23504,7 @@
         <v>16</v>
       </c>
       <c r="X284" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y284" s="8" t="s">
         <v>231</v>
@@ -23587,7 +23584,7 @@
         <v>253</v>
       </c>
       <c r="X285" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y285" s="8" t="s">
         <v>231</v>
@@ -23801,10 +23798,10 @@
         <v>0</v>
       </c>
       <c r="W289" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="X289" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y289" s="8" t="s">
         <v>231</v>
@@ -23881,10 +23878,10 @@
         <v>0</v>
       </c>
       <c r="W290" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X290" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y290" s="8" t="s">
         <v>231</v>
@@ -23961,10 +23958,10 @@
         <v>540</v>
       </c>
       <c r="W291" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X291" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y291" s="8" t="s">
         <v>231</v>
@@ -24041,10 +24038,10 @@
         <v>8685</v>
       </c>
       <c r="W292" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X292" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y292" s="8" t="s">
         <v>231</v>
@@ -24121,10 +24118,10 @@
         <v>158</v>
       </c>
       <c r="W293" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X293" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y293" s="8" t="s">
         <v>231</v>
@@ -24204,13 +24201,13 @@
         <v>251</v>
       </c>
       <c r="X294" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y294" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z294" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.25">
@@ -24281,10 +24278,10 @@
         <v>0</v>
       </c>
       <c r="W295" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X295" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y295" s="8" t="s">
         <v>231</v>
@@ -24361,10 +24358,10 @@
         <v>1395</v>
       </c>
       <c r="W296" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X296" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y296" s="8" t="s">
         <v>231</v>
@@ -24444,13 +24441,13 @@
         <v>249</v>
       </c>
       <c r="X297" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y297" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z297" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.25">
@@ -24524,13 +24521,13 @@
         <v>249</v>
       </c>
       <c r="X298" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y298" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z298" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.25">
@@ -24604,13 +24601,13 @@
         <v>250</v>
       </c>
       <c r="X299" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y299" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z299" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.25">
@@ -24684,13 +24681,13 @@
         <v>250</v>
       </c>
       <c r="X300" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y300" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z300" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.25">
@@ -24761,10 +24758,10 @@
         <v>206</v>
       </c>
       <c r="W301" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X301" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y301" s="8" t="s">
         <v>231</v>
@@ -24841,10 +24838,10 @@
         <v>1324</v>
       </c>
       <c r="W302" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="X302" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y302" s="8" t="s">
         <v>231</v>
@@ -24924,7 +24921,7 @@
         <v>13</v>
       </c>
       <c r="X303" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y303" s="8" t="s">
         <v>231</v>
@@ -25004,7 +25001,7 @@
         <v>14</v>
       </c>
       <c r="X304" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y304" s="8" t="s">
         <v>231</v>
@@ -25084,7 +25081,7 @@
         <v>15</v>
       </c>
       <c r="X305" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y305" s="8" t="s">
         <v>231</v>
@@ -25164,7 +25161,7 @@
         <v>16</v>
       </c>
       <c r="X306" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y306" s="8" t="s">
         <v>231</v>
@@ -25244,7 +25241,7 @@
         <v>253</v>
       </c>
       <c r="X307" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y307" s="8" t="s">
         <v>231</v>
@@ -25458,10 +25455,10 @@
         <v>0</v>
       </c>
       <c r="W311" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="X311" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y311" s="8" t="s">
         <v>231</v>
@@ -25538,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="W312" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X312" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y312" s="8" t="s">
         <v>231</v>
@@ -25618,10 +25615,10 @@
         <v>0</v>
       </c>
       <c r="W313" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X313" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y313" s="8" t="s">
         <v>231</v>
@@ -25698,10 +25695,10 @@
         <v>27337</v>
       </c>
       <c r="W314" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X314" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y314" s="8" t="s">
         <v>231</v>
@@ -25778,10 +25775,10 @@
         <v>0</v>
       </c>
       <c r="W315" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X315" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y315" s="8" t="s">
         <v>231</v>
@@ -25861,13 +25858,13 @@
         <v>251</v>
       </c>
       <c r="X316" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y316" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z316" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="Y316" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z316" s="8" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="317" spans="1:26" x14ac:dyDescent="0.25">
@@ -25938,16 +25935,16 @@
         <v>14735</v>
       </c>
       <c r="W317" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X317" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y317" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z317" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="318" spans="1:26" x14ac:dyDescent="0.25">
@@ -26018,10 +26015,10 @@
         <v>13907</v>
       </c>
       <c r="W318" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X318" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y318" s="8" t="s">
         <v>231</v>
@@ -26101,13 +26098,13 @@
         <v>249</v>
       </c>
       <c r="X319" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y319" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z319" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="320" spans="1:26" x14ac:dyDescent="0.25">
@@ -26181,13 +26178,13 @@
         <v>249</v>
       </c>
       <c r="X320" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y320" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z320" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="321" spans="1:26" x14ac:dyDescent="0.25">
@@ -26261,13 +26258,13 @@
         <v>250</v>
       </c>
       <c r="X321" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y321" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z321" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.25">
@@ -26341,13 +26338,13 @@
         <v>250</v>
       </c>
       <c r="X322" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y322" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z322" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="323" spans="1:26" x14ac:dyDescent="0.25">
@@ -26418,16 +26415,16 @@
         <v>3437</v>
       </c>
       <c r="W323" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X323" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y323" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z323" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="324" spans="1:26" x14ac:dyDescent="0.25">
@@ -26498,16 +26495,16 @@
         <v>4521</v>
       </c>
       <c r="W324" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X324" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y324" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z324" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="325" spans="1:26" x14ac:dyDescent="0.25">
@@ -26581,7 +26578,7 @@
         <v>13</v>
       </c>
       <c r="X325" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y325" s="8" t="s">
         <v>231</v>
@@ -26661,7 +26658,7 @@
         <v>14</v>
       </c>
       <c r="X326" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y326" s="8" t="s">
         <v>231</v>
@@ -26741,7 +26738,7 @@
         <v>15</v>
       </c>
       <c r="X327" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y327" s="8" t="s">
         <v>231</v>
@@ -26821,7 +26818,7 @@
         <v>16</v>
       </c>
       <c r="X328" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y328" s="8" t="s">
         <v>231</v>
@@ -26901,7 +26898,7 @@
         <v>253</v>
       </c>
       <c r="X329" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y329" s="8" t="s">
         <v>231</v>
@@ -27115,10 +27112,10 @@
         <v>0</v>
       </c>
       <c r="W333" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="X333" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y333" s="8" t="s">
         <v>231</v>
@@ -27195,10 +27192,10 @@
         <v>0</v>
       </c>
       <c r="W334" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X334" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y334" s="8" t="s">
         <v>231</v>
@@ -27275,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="W335" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X335" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y335" s="8" t="s">
         <v>231</v>
@@ -27355,10 +27352,10 @@
         <v>0</v>
       </c>
       <c r="W336" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X336" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y336" s="8" t="s">
         <v>231</v>
@@ -27435,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="W337" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X337" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y337" s="8" t="s">
         <v>231</v>
@@ -27518,13 +27515,13 @@
         <v>251</v>
       </c>
       <c r="X338" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y338" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z338" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="Y338" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z338" s="8" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="339" spans="1:26" x14ac:dyDescent="0.25">
@@ -27595,10 +27592,10 @@
         <v>8152</v>
       </c>
       <c r="W339" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X339" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y339" s="8" t="s">
         <v>231</v>
@@ -27675,10 +27672,10 @@
         <v>3989</v>
       </c>
       <c r="W340" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X340" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y340" s="8" t="s">
         <v>231</v>
@@ -27758,13 +27755,13 @@
         <v>249</v>
       </c>
       <c r="X341" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y341" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z341" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="342" spans="1:26" x14ac:dyDescent="0.25">
@@ -27838,13 +27835,13 @@
         <v>249</v>
       </c>
       <c r="X342" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y342" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z342" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="343" spans="1:26" x14ac:dyDescent="0.25">
@@ -27918,13 +27915,13 @@
         <v>250</v>
       </c>
       <c r="X343" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y343" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z343" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="344" spans="1:26" x14ac:dyDescent="0.25">
@@ -27998,13 +27995,13 @@
         <v>250</v>
       </c>
       <c r="X344" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y344" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z344" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="345" spans="1:26" x14ac:dyDescent="0.25">
@@ -28075,10 +28072,10 @@
         <v>1197</v>
       </c>
       <c r="W345" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X345" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y345" s="8" t="s">
         <v>231</v>
@@ -28155,10 +28152,10 @@
         <v>889</v>
       </c>
       <c r="W346" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="X346" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y346" s="8" t="s">
         <v>231</v>
@@ -28238,7 +28235,7 @@
         <v>13</v>
       </c>
       <c r="X347" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y347" s="8" t="s">
         <v>231</v>
@@ -28318,7 +28315,7 @@
         <v>14</v>
       </c>
       <c r="X348" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y348" s="8" t="s">
         <v>231</v>
@@ -28398,7 +28395,7 @@
         <v>15</v>
       </c>
       <c r="X349" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y349" s="8" t="s">
         <v>231</v>
@@ -28478,7 +28475,7 @@
         <v>16</v>
       </c>
       <c r="X350" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y350" s="8" t="s">
         <v>231</v>
@@ -28558,7 +28555,7 @@
         <v>253</v>
       </c>
       <c r="X351" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y351" s="8" t="s">
         <v>231</v>
@@ -28775,7 +28772,7 @@
         <v>1</v>
       </c>
       <c r="X355" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y355" s="8" t="s">
         <v>231</v>
@@ -28852,10 +28849,10 @@
         <v>0</v>
       </c>
       <c r="W356" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X356" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y356" s="8" t="s">
         <v>231</v>
@@ -28932,10 +28929,10 @@
         <v>0</v>
       </c>
       <c r="W357" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X357" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y357" s="8" t="s">
         <v>231</v>
@@ -29012,10 +29009,10 @@
         <v>44063</v>
       </c>
       <c r="W358" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X358" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y358" s="8" t="s">
         <v>231</v>
@@ -29092,10 +29089,10 @@
         <v>0</v>
       </c>
       <c r="W359" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X359" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y359" s="8" t="s">
         <v>231</v>
@@ -29175,13 +29172,13 @@
         <v>251</v>
       </c>
       <c r="X360" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y360" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z360" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="Y360" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z360" s="8" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.25">
@@ -29252,16 +29249,16 @@
         <v>9566</v>
       </c>
       <c r="W361" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X361" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y361" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z361" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.25">
@@ -29332,10 +29329,10 @@
         <v>11899</v>
       </c>
       <c r="W362" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X362" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y362" s="8" t="s">
         <v>231</v>
@@ -29415,13 +29412,13 @@
         <v>249</v>
       </c>
       <c r="X363" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y363" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z363" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="364" spans="1:26" x14ac:dyDescent="0.25">
@@ -29495,13 +29492,13 @@
         <v>249</v>
       </c>
       <c r="X364" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y364" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z364" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="365" spans="1:26" x14ac:dyDescent="0.25">
@@ -29575,13 +29572,13 @@
         <v>250</v>
       </c>
       <c r="X365" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y365" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z365" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="366" spans="1:26" x14ac:dyDescent="0.25">
@@ -29655,13 +29652,13 @@
         <v>250</v>
       </c>
       <c r="X366" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y366" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z366" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="367" spans="1:26" x14ac:dyDescent="0.25">
@@ -29732,10 +29729,10 @@
         <v>4931</v>
       </c>
       <c r="W367" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="X367" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y367" s="8" t="s">
         <v>231</v>
@@ -29812,16 +29809,16 @@
         <v>5984</v>
       </c>
       <c r="W368" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X368" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y368" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z368" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="369" spans="1:26" x14ac:dyDescent="0.25">
@@ -29895,7 +29892,7 @@
         <v>13</v>
       </c>
       <c r="X369" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y369" s="8" t="s">
         <v>231</v>
@@ -29975,7 +29972,7 @@
         <v>14</v>
       </c>
       <c r="X370" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y370" s="8" t="s">
         <v>231</v>
@@ -30055,7 +30052,7 @@
         <v>15</v>
       </c>
       <c r="X371" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y371" s="8" t="s">
         <v>231</v>
@@ -30135,7 +30132,7 @@
         <v>16</v>
       </c>
       <c r="X372" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y372" s="8" t="s">
         <v>231</v>
@@ -30215,7 +30212,7 @@
         <v>253</v>
       </c>
       <c r="X373" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y373" s="8" t="s">
         <v>231</v>
@@ -30432,7 +30429,7 @@
         <v>1</v>
       </c>
       <c r="X377" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y377" s="8" t="s">
         <v>231</v>
@@ -30509,10 +30506,10 @@
         <v>0</v>
       </c>
       <c r="W378" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X378" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y378" s="8" t="s">
         <v>231</v>
@@ -30589,10 +30586,10 @@
         <v>0</v>
       </c>
       <c r="W379" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X379" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y379" s="8" t="s">
         <v>231</v>
@@ -30669,10 +30666,10 @@
         <v>531</v>
       </c>
       <c r="W380" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X380" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y380" s="8" t="s">
         <v>231</v>
@@ -30749,10 +30746,10 @@
         <v>810</v>
       </c>
       <c r="W381" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X381" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y381" s="8" t="s">
         <v>231</v>
@@ -30832,13 +30829,13 @@
         <v>251</v>
       </c>
       <c r="X382" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y382" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z382" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="Y382" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z382" s="8" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="383" spans="1:26" x14ac:dyDescent="0.25">
@@ -30909,10 +30906,10 @@
         <v>0</v>
       </c>
       <c r="W383" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X383" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y383" s="8" t="s">
         <v>231</v>
@@ -30989,10 +30986,10 @@
         <v>1125</v>
       </c>
       <c r="W384" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X384" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y384" s="8" t="s">
         <v>231</v>
@@ -31072,13 +31069,13 @@
         <v>249</v>
       </c>
       <c r="X385" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y385" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z385" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="386" spans="1:26" x14ac:dyDescent="0.25">
@@ -31152,13 +31149,13 @@
         <v>249</v>
       </c>
       <c r="X386" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y386" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z386" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="387" spans="1:26" x14ac:dyDescent="0.25">
@@ -31232,13 +31229,13 @@
         <v>250</v>
       </c>
       <c r="X387" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y387" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z387" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="388" spans="1:26" x14ac:dyDescent="0.25">
@@ -31312,13 +31309,13 @@
         <v>250</v>
       </c>
       <c r="X388" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y388" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z388" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="389" spans="1:26" x14ac:dyDescent="0.25">
@@ -31389,16 +31386,16 @@
         <v>338</v>
       </c>
       <c r="W389" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X389" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y389" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z389" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="390" spans="1:26" x14ac:dyDescent="0.25">
@@ -31469,10 +31466,10 @@
         <v>294</v>
       </c>
       <c r="W390" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="X390" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y390" s="8" t="s">
         <v>231</v>
@@ -31552,7 +31549,7 @@
         <v>13</v>
       </c>
       <c r="X391" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y391" s="8" t="s">
         <v>231</v>
@@ -31632,7 +31629,7 @@
         <v>14</v>
       </c>
       <c r="X392" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y392" s="8" t="s">
         <v>231</v>
@@ -31712,7 +31709,7 @@
         <v>15</v>
       </c>
       <c r="X393" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y393" s="8" t="s">
         <v>231</v>
@@ -31792,7 +31789,7 @@
         <v>16</v>
       </c>
       <c r="X394" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y394" s="8" t="s">
         <v>231</v>
@@ -31872,7 +31869,7 @@
         <v>253</v>
       </c>
       <c r="X395" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y395" s="8" t="s">
         <v>231</v>
@@ -32089,7 +32086,7 @@
         <v>1</v>
       </c>
       <c r="X399" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y399" s="8" t="s">
         <v>231</v>
@@ -32166,10 +32163,10 @@
         <v>1126</v>
       </c>
       <c r="W400" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X400" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y400" s="8" t="s">
         <v>231</v>
@@ -32246,10 +32243,10 @@
         <v>6710</v>
       </c>
       <c r="W401" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X401" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y401" s="8" t="s">
         <v>231</v>
@@ -32326,10 +32323,10 @@
         <v>10001</v>
       </c>
       <c r="W402" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X402" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y402" s="8" t="s">
         <v>231</v>
@@ -32406,10 +32403,10 @@
         <v>0</v>
       </c>
       <c r="W403" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X403" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y403" s="8" t="s">
         <v>231</v>
@@ -32489,13 +32486,13 @@
         <v>251</v>
       </c>
       <c r="X404" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y404" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z404" s="8" t="s">
         <v>363</v>
-      </c>
-      <c r="Y404" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z404" s="8" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="405" spans="1:26" x14ac:dyDescent="0.25">
@@ -32566,10 +32563,10 @@
         <v>183</v>
       </c>
       <c r="W405" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X405" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y405" s="8" t="s">
         <v>231</v>
@@ -32646,10 +32643,10 @@
         <v>1501</v>
       </c>
       <c r="W406" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X406" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y406" s="8" t="s">
         <v>231</v>
@@ -32729,13 +32726,13 @@
         <v>249</v>
       </c>
       <c r="X407" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y407" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z407" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="408" spans="1:26" x14ac:dyDescent="0.25">
@@ -32809,13 +32806,13 @@
         <v>249</v>
       </c>
       <c r="X408" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y408" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z408" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="409" spans="1:26" x14ac:dyDescent="0.25">
@@ -32889,13 +32886,13 @@
         <v>250</v>
       </c>
       <c r="X409" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y409" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z409" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="410" spans="1:26" x14ac:dyDescent="0.25">
@@ -32969,13 +32966,13 @@
         <v>250</v>
       </c>
       <c r="X410" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y410" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z410" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="411" spans="1:26" x14ac:dyDescent="0.25">
@@ -33046,16 +33043,16 @@
         <v>2332</v>
       </c>
       <c r="W411" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X411" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y411" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z411" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="412" spans="1:26" x14ac:dyDescent="0.25">
@@ -33126,16 +33123,16 @@
         <v>7759</v>
       </c>
       <c r="W412" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X412" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y412" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z412" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="413" spans="1:26" x14ac:dyDescent="0.25">
@@ -33209,7 +33206,7 @@
         <v>13</v>
       </c>
       <c r="X413" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y413" s="8" t="s">
         <v>231</v>
@@ -33289,7 +33286,7 @@
         <v>14</v>
       </c>
       <c r="X414" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y414" s="8" t="s">
         <v>231</v>
@@ -33369,7 +33366,7 @@
         <v>15</v>
       </c>
       <c r="X415" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y415" s="8" t="s">
         <v>231</v>
@@ -33449,7 +33446,7 @@
         <v>16</v>
       </c>
       <c r="X416" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y416" s="8" t="s">
         <v>231</v>
@@ -33529,7 +33526,7 @@
         <v>253</v>
       </c>
       <c r="X417" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y417" s="8" t="s">
         <v>231</v>
@@ -33743,10 +33740,10 @@
         <v>6806</v>
       </c>
       <c r="W421" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="X421" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y421" s="8" t="s">
         <v>231</v>
@@ -33823,10 +33820,10 @@
         <v>2144</v>
       </c>
       <c r="W422" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X422" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y422" s="8" t="s">
         <v>231</v>
@@ -33903,10 +33900,10 @@
         <v>656</v>
       </c>
       <c r="W423" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X423" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y423" s="8" t="s">
         <v>231</v>
@@ -33983,10 +33980,10 @@
         <v>2031</v>
       </c>
       <c r="W424" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X424" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y424" s="8" t="s">
         <v>231</v>
@@ -34063,10 +34060,10 @@
         <v>0</v>
       </c>
       <c r="W425" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X425" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y425" s="8" t="s">
         <v>231</v>
@@ -34146,13 +34143,13 @@
         <v>251</v>
       </c>
       <c r="X426" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y426" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z426" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="Y426" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z426" s="8" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="427" spans="1:26" x14ac:dyDescent="0.25">
@@ -34223,16 +34220,16 @@
         <v>700</v>
       </c>
       <c r="W427" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X427" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y427" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z427" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="428" spans="1:26" x14ac:dyDescent="0.25">
@@ -34303,10 +34300,10 @@
         <v>2082</v>
       </c>
       <c r="W428" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X428" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y428" s="8" t="s">
         <v>231</v>
@@ -34386,13 +34383,13 @@
         <v>249</v>
       </c>
       <c r="X429" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y429" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z429" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="430" spans="1:26" x14ac:dyDescent="0.25">
@@ -34466,13 +34463,13 @@
         <v>249</v>
       </c>
       <c r="X430" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y430" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z430" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="431" spans="1:26" x14ac:dyDescent="0.25">
@@ -34546,13 +34543,13 @@
         <v>250</v>
       </c>
       <c r="X431" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y431" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z431" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="432" spans="1:26" x14ac:dyDescent="0.25">
@@ -34626,13 +34623,13 @@
         <v>250</v>
       </c>
       <c r="X432" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y432" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z432" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="433" spans="1:26" x14ac:dyDescent="0.25">
@@ -34703,16 +34700,16 @@
         <v>1382</v>
       </c>
       <c r="W433" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X433" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y433" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z433" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="434" spans="1:26" x14ac:dyDescent="0.25">
@@ -34783,16 +34780,16 @@
         <v>1398</v>
       </c>
       <c r="W434" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X434" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y434" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z434" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="435" spans="1:26" x14ac:dyDescent="0.25">
@@ -34866,7 +34863,7 @@
         <v>13</v>
       </c>
       <c r="X435" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y435" s="8" t="s">
         <v>231</v>
@@ -34946,7 +34943,7 @@
         <v>14</v>
       </c>
       <c r="X436" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y436" s="8" t="s">
         <v>231</v>
@@ -35026,7 +35023,7 @@
         <v>15</v>
       </c>
       <c r="X437" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y437" s="8" t="s">
         <v>231</v>
@@ -35106,7 +35103,7 @@
         <v>16</v>
       </c>
       <c r="X438" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y438" s="8" t="s">
         <v>231</v>
@@ -35186,7 +35183,7 @@
         <v>253</v>
       </c>
       <c r="X439" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y439" s="8" t="s">
         <v>231</v>
@@ -35400,10 +35397,10 @@
         <v>2360</v>
       </c>
       <c r="W443" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X443" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y443" s="8" t="s">
         <v>231</v>
@@ -35480,10 +35477,10 @@
         <v>0</v>
       </c>
       <c r="W444" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X444" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y444" s="8" t="s">
         <v>231</v>
@@ -35560,10 +35557,10 @@
         <v>0</v>
       </c>
       <c r="W445" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X445" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y445" s="8" t="s">
         <v>231</v>
@@ -35640,10 +35637,10 @@
         <v>427</v>
       </c>
       <c r="W446" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X446" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y446" s="8" t="s">
         <v>231</v>
@@ -35720,10 +35717,10 @@
         <v>0</v>
       </c>
       <c r="W447" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X447" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y447" s="8" t="s">
         <v>231</v>
@@ -35803,13 +35800,13 @@
         <v>251</v>
       </c>
       <c r="X448" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y448" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z448" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="Y448" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z448" s="8" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.25">
@@ -35880,10 +35877,10 @@
         <v>0</v>
       </c>
       <c r="W449" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X449" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y449" s="8" t="s">
         <v>231</v>
@@ -35960,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="W450" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X450" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y450" s="8" t="s">
         <v>231</v>
@@ -36043,13 +36040,13 @@
         <v>249</v>
       </c>
       <c r="X451" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y451" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z451" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.25">
@@ -36123,13 +36120,13 @@
         <v>249</v>
       </c>
       <c r="X452" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y452" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z452" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.25">
@@ -36203,13 +36200,13 @@
         <v>250</v>
       </c>
       <c r="X453" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y453" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z453" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.25">
@@ -36283,13 +36280,13 @@
         <v>250</v>
       </c>
       <c r="X454" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y454" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z454" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="455" spans="1:27" x14ac:dyDescent="0.25">
@@ -36360,16 +36357,16 @@
         <v>404</v>
       </c>
       <c r="W455" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X455" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y455" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z455" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.25">
@@ -36440,16 +36437,16 @@
         <v>454</v>
       </c>
       <c r="W456" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X456" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y456" s="8" t="s">
         <v>231</v>
       </c>
       <c r="Z456" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="457" spans="1:27" x14ac:dyDescent="0.25">
@@ -36523,7 +36520,7 @@
         <v>13</v>
       </c>
       <c r="X457" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y457" s="8" t="s">
         <v>231</v>
@@ -36603,7 +36600,7 @@
         <v>14</v>
       </c>
       <c r="X458" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y458" s="8" t="s">
         <v>231</v>
@@ -36683,7 +36680,7 @@
         <v>15</v>
       </c>
       <c r="X459" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y459" s="8" t="s">
         <v>231</v>
@@ -36763,7 +36760,7 @@
         <v>16</v>
       </c>
       <c r="X460" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y460" s="8" t="s">
         <v>231</v>
@@ -36843,7 +36840,7 @@
         <v>253</v>
       </c>
       <c r="X461" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Y461" s="8" t="s">
         <v>231</v>
@@ -42988,7 +42985,7 @@
         <v>1</v>
       </c>
       <c r="Z539" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="540" spans="1:29" x14ac:dyDescent="0.25">
@@ -48581,7 +48578,7 @@
         <v>249</v>
       </c>
       <c r="X614" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Y614" s="8">
         <v>1</v>
@@ -48837,7 +48834,7 @@
     </row>
     <row r="620" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A620" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B620" s="8"/>
       <c r="C620" s="8"/>
@@ -48867,7 +48864,7 @@
     </row>
     <row r="621" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A621" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B621" s="8">
         <v>2020</v>
@@ -49016,7 +49013,7 @@
         <v>249</v>
       </c>
       <c r="X622" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Y622" s="8">
         <v>1</v>

--- a/data/capacities.xlsx
+++ b/data/capacities.xlsx
@@ -2049,10 +2049,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A588" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A576" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A566" sqref="A566"/>
-      <selection pane="topRight" activeCell="X614" sqref="X614"/>
+      <selection pane="topRight" activeCell="U605" sqref="U605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47404,64 +47404,64 @@
         <v>444.4</v>
       </c>
       <c r="C598" s="8">
-        <v>444.4</v>
+        <v>244.39999999999998</v>
       </c>
       <c r="D598" s="8">
-        <v>1049.2</v>
+        <v>449.20000000000005</v>
       </c>
       <c r="E598" s="8">
-        <v>1049.2</v>
+        <v>449.20000000000005</v>
       </c>
       <c r="F598" s="8">
-        <v>1049.2</v>
+        <v>449.20000000000005</v>
       </c>
       <c r="G598" s="8">
-        <v>1049.2</v>
+        <v>449.20000000000005</v>
       </c>
       <c r="H598" s="8">
-        <v>1009.2</v>
+        <v>409.20000000000005</v>
       </c>
       <c r="I598" s="8">
-        <v>1009.2</v>
+        <v>409.20000000000005</v>
       </c>
       <c r="J598" s="8">
-        <v>1509.2</v>
+        <v>909.2</v>
       </c>
       <c r="K598" s="8">
-        <v>1843.6</v>
+        <v>1243.5999999999999</v>
       </c>
       <c r="L598" s="8">
-        <v>2343.6</v>
+        <v>1743.6</v>
       </c>
       <c r="M598" s="8">
-        <v>2843.6</v>
+        <v>2243.6</v>
       </c>
       <c r="N598" s="8">
-        <v>2843.6</v>
+        <v>2243.6</v>
       </c>
       <c r="O598" s="8">
-        <v>2843.6</v>
+        <v>2243.6</v>
       </c>
       <c r="P598" s="8">
-        <v>2843.6</v>
+        <v>2243.6</v>
       </c>
       <c r="Q598" s="8">
-        <v>2815.4</v>
+        <v>2215.4</v>
       </c>
       <c r="R598" s="8">
-        <v>2608.4</v>
+        <v>2008.4</v>
       </c>
       <c r="S598" s="8">
-        <v>2604.8000000000002</v>
+        <v>2004.8000000000002</v>
       </c>
       <c r="T598" s="8">
-        <v>2604.8000000000002</v>
+        <v>2004.8000000000002</v>
       </c>
       <c r="U598" s="8">
-        <v>2604.8000000000002</v>
+        <v>2004.8000000000002</v>
       </c>
       <c r="V598" s="8">
-        <v>2604.8000000000002</v>
+        <v>2004.8000000000002</v>
       </c>
       <c r="W598" s="8" t="s">
         <v>249</v>
@@ -47561,67 +47561,67 @@
         <v>220</v>
       </c>
       <c r="B600" s="8">
-        <v>757.42600000000004</v>
+        <v>742.42600000000004</v>
       </c>
       <c r="C600" s="8">
-        <v>757.42600000000004</v>
+        <v>742.42600000000004</v>
       </c>
       <c r="D600" s="8">
-        <v>757.42600000000004</v>
+        <v>742.42600000000004</v>
       </c>
       <c r="E600" s="8">
-        <v>749.702</v>
+        <v>734.702</v>
       </c>
       <c r="F600" s="8">
-        <v>744.47199999999998</v>
+        <v>729.47199999999998</v>
       </c>
       <c r="G600" s="8">
-        <v>807.34199999999998</v>
+        <v>792.34199999999998</v>
       </c>
       <c r="H600" s="8">
-        <v>789.88699999999994</v>
+        <v>774.88699999999994</v>
       </c>
       <c r="I600" s="8">
-        <v>803.05700000000002</v>
+        <v>788.05700000000002</v>
       </c>
       <c r="J600" s="8">
-        <v>826.85199999999998</v>
+        <v>811.85199999999998</v>
       </c>
       <c r="K600" s="8">
-        <v>838.947</v>
+        <v>823.947</v>
       </c>
       <c r="L600" s="8">
-        <v>864.64199999999994</v>
+        <v>849.64199999999994</v>
       </c>
       <c r="M600" s="8">
-        <v>866.58699999999999</v>
+        <v>851.58699999999999</v>
       </c>
       <c r="N600" s="8">
-        <v>872.88200000000006</v>
+        <v>857.88200000000006</v>
       </c>
       <c r="O600" s="8">
-        <v>884.404</v>
+        <v>869.404</v>
       </c>
       <c r="P600" s="8">
-        <v>899.49400000000003</v>
+        <v>884.49400000000003</v>
       </c>
       <c r="Q600" s="8">
-        <v>913.60500000000002</v>
+        <v>898.60500000000002</v>
       </c>
       <c r="R600" s="8">
-        <v>905.55</v>
+        <v>890.55</v>
       </c>
       <c r="S600" s="8">
-        <v>862.41499999999996</v>
+        <v>847.41499999999996</v>
       </c>
       <c r="T600" s="8">
-        <v>839.41499999999996</v>
+        <v>824.41499999999996</v>
       </c>
       <c r="U600" s="8">
-        <v>797.64499999999998</v>
+        <v>782.64499999999998</v>
       </c>
       <c r="V600" s="8">
-        <v>730.28499999999997</v>
+        <v>715.28499999999997</v>
       </c>
       <c r="W600" s="8" t="s">
         <v>249</v>
@@ -47875,6 +47875,28 @@
       <c r="Z603" s="8" t="s">
         <v>231</v>
       </c>
+    </row>
+    <row r="604" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C604" s="8"/>
+      <c r="D604" s="8"/>
+      <c r="E604" s="8"/>
+      <c r="F604" s="8"/>
+      <c r="G604" s="8"/>
+      <c r="H604" s="8"/>
+      <c r="I604" s="8"/>
+      <c r="J604" s="8"/>
+      <c r="K604" s="8"/>
+      <c r="L604" s="8"/>
+      <c r="M604" s="8"/>
+      <c r="N604" s="8"/>
+      <c r="O604" s="8"/>
+      <c r="P604" s="8"/>
+      <c r="Q604" s="8"/>
+      <c r="R604" s="8"/>
+      <c r="S604" s="8"/>
+      <c r="T604" s="8"/>
+      <c r="U604" s="8"/>
+      <c r="V604" s="8"/>
     </row>
     <row r="605" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A605" s="3"/>
